--- a/src/despair_public_items_view.xlsx
+++ b/src/despair_public_items_view.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -105,7 +105,7 @@
     <t>Cola.ext</t>
   </si>
   <si>
-    <t>https://sketchfab.com/3d-models/soda-cans-4e0be610db9646929d8be84491f1a72f</t>
+    <t>https://sketchfab.com/3d-models/coke-can-0ccc58bd9c2242a680a92801d7fe6bbc</t>
   </si>
   <si>
     <t>Consumable</t>
@@ -138,7 +138,7 @@
     <t>Analgin.ext</t>
   </si>
   <si>
-    <t>https://sketchfab.com/3d-models/pills-4993b73e16f04c148c63a56b6944510c</t>
+    <t>https://sketchfab.com/3d-models/pills-blister-set-game-ready-prop-4e09ebcd12854f5c9c6e9817c3cacbea</t>
   </si>
   <si>
     <t>Medicine</t>
@@ -246,6 +246,9 @@
     <t>BalaclavaAnaTacticalMulticam.ext</t>
   </si>
   <si>
+    <t>https://sketchfab.com/3d-models/balaclava-01ba582bfa254779af71baac65bb1a72</t>
+  </si>
+  <si>
     <t>Masks and Balaclavas</t>
   </si>
   <si>
@@ -411,6 +414,9 @@
     <t>Cover &amp; Slide</t>
   </si>
   <si>
+    <t>https://line-f.ru/shop/product/28266/kryshka-stvolnoj-korobki-fab-defense-pdc-pod-ak/</t>
+  </si>
+  <si>
     <t>Крышка ствольной коробки АКМ 6П1 0-1</t>
   </si>
   <si>
@@ -429,7 +435,7 @@
     <t>Box7.62x39ПС.ext</t>
   </si>
   <si>
-    <t>https://sketchfab.com/3d-models/assault-rifle-ammo-box-remake-0e880a3c2cfd4ea9a4891a81f621733b</t>
+    <t>https://sketchfab.com/3d-models/ammo-boxes-pack-low-poly-game-ready-bb1f5649dfa74315977e9706d5079a6f</t>
   </si>
   <si>
     <t>Ammo</t>
@@ -447,9 +453,6 @@
     <t>Box9x18Пст.ext</t>
   </si>
   <si>
-    <t>https://sketchfab.com/3d-models/ammo-boxes-pack-low-poly-game-ready-bb1f5649dfa74315977e9706d5079a6f</t>
-  </si>
-  <si>
     <t>Коробка патронов 12/70 7мм 25 штук</t>
   </si>
   <si>
@@ -561,7 +564,7 @@
     <t>Rare</t>
   </si>
   <si>
-    <t>https://voensklad.su/sredstva_zaschity/bronezhilet/broneplity-granit-5a</t>
+    <t>https://www.ratnikshop.ru/wp-content/uploads/2018/05/f6N1CHWScYw.jpg</t>
   </si>
   <si>
     <t>Пояс Ana Tactical Слим Multicam</t>
@@ -640,6 +643,9 @@
   </si>
   <si>
     <t>Glock19.ext</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/77832652/rewrite-domain-in-set-cookie-in-nextjs-dev-server</t>
   </si>
   <si>
     <t>Pistol</t>
@@ -1065,21 +1071,58 @@
         <v>76</v>
       </c>
       <c t="s">
+        <v>77</v>
+      </c>
+      <c t="s">
+        <v>56</v>
+      </c>
+      <c t="s">
+        <v>78</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>79</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>80</v>
+      </c>
+      <c t="s">
+        <v>81</v>
+      </c>
+      <c t="s">
+        <v>82</v>
+      </c>
+      <c t="s">
         <v>63</v>
       </c>
       <c t="s">
         <v>56</v>
       </c>
       <c t="s">
-        <v>77</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>78</v>
+        <v>83</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>84</v>
       </c>
       <c t="s">
         <v>19</v>
@@ -1090,1005 +1133,968 @@
     </row>
     <row>
       <c t="n">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>79</v>
-      </c>
-      <c t="s">
-        <v>80</v>
-      </c>
-      <c t="s">
-        <v>81</v>
+        <v>30</v>
+      </c>
+      <c t="s">
+        <v>85</v>
+      </c>
+      <c t="s">
+        <v>86</v>
+      </c>
+      <c t="s">
+        <v>87</v>
       </c>
       <c t="s">
         <v>63</v>
       </c>
       <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
-        <v>82</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>83</v>
-      </c>
-      <c t="s">
+        <v>88</v>
+      </c>
+      <c t="s">
+        <v>89</v>
+      </c>
+      <c t="s">
+        <v>90</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>91</v>
+      </c>
+      <c t="s">
+        <v>92</v>
+      </c>
+      <c t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>93</v>
+      </c>
+      <c t="s">
+        <v>94</v>
+      </c>
+      <c t="s">
+        <v>95</v>
+      </c>
+      <c t="s">
+        <v>63</v>
+      </c>
+      <c t="s">
+        <v>88</v>
+      </c>
+      <c t="s">
+        <v>96</v>
+      </c>
+      <c t="s">
+        <v>97</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>98</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>99</v>
+      </c>
+      <c t="s">
+        <v>100</v>
+      </c>
+      <c t="s">
+        <v>101</v>
+      </c>
+      <c t="s">
+        <v>102</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>104</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>99</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
         <v>19</v>
       </c>
-      <c t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>84</v>
-      </c>
-      <c t="s">
-        <v>85</v>
-      </c>
-      <c t="s">
-        <v>86</v>
+      <c t="s">
+        <v>106</v>
+      </c>
+      <c t="s">
+        <v>107</v>
+      </c>
+      <c t="s">
+        <v>108</v>
+      </c>
+      <c t="s">
+        <v>102</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>109</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>106</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>110</v>
+      </c>
+      <c t="s">
+        <v>111</v>
+      </c>
+      <c t="s">
+        <v>112</v>
+      </c>
+      <c t="s">
+        <v>102</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>113</v>
+      </c>
+      <c t="s">
+        <v>114</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>110</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>115</v>
+      </c>
+      <c t="s">
+        <v>116</v>
+      </c>
+      <c t="s">
+        <v>117</v>
+      </c>
+      <c t="s">
+        <v>118</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>119</v>
+      </c>
+      <c t="s">
+        <v>120</v>
+      </c>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>115</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>121</v>
+      </c>
+      <c t="s">
+        <v>122</v>
+      </c>
+      <c t="s">
+        <v>123</v>
+      </c>
+      <c t="s">
+        <v>102</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>124</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>121</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>125</v>
+      </c>
+      <c t="s">
+        <v>126</v>
+      </c>
+      <c t="s">
+        <v>127</v>
+      </c>
+      <c t="s">
+        <v>102</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>128</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>125</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>129</v>
+      </c>
+      <c t="s">
+        <v>130</v>
+      </c>
+      <c t="s">
+        <v>131</v>
       </c>
       <c t="s">
         <v>63</v>
       </c>
       <c t="s">
-        <v>87</v>
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>132</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>133</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>134</v>
+      </c>
+      <c t="s">
+        <v>135</v>
+      </c>
+      <c t="s">
+        <v>136</v>
+      </c>
+      <c t="s">
+        <v>102</v>
+      </c>
+      <c t="s">
+        <v>103</v>
+      </c>
+      <c t="s">
+        <v>132</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>134</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="n">
+        <v>0.088</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>137</v>
+      </c>
+      <c t="s">
+        <v>138</v>
+      </c>
+      <c t="s">
+        <v>139</v>
+      </c>
+      <c t="s">
+        <v>140</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>142</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>137</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>143</v>
+      </c>
+      <c t="s">
+        <v>144</v>
+      </c>
+      <c t="s">
+        <v>145</v>
+      </c>
+      <c t="s">
+        <v>140</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>142</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>143</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>10</v>
+      </c>
+      <c t="s">
+        <v>146</v>
+      </c>
+      <c t="s">
+        <v>147</v>
+      </c>
+      <c t="s">
+        <v>148</v>
+      </c>
+      <c t="s">
+        <v>149</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>142</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>146</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>150</v>
+      </c>
+      <c t="s">
+        <v>151</v>
+      </c>
+      <c t="s">
+        <v>152</v>
+      </c>
+      <c t="s">
+        <v>140</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>142</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>150</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>153</v>
+      </c>
+      <c t="s">
+        <v>154</v>
+      </c>
+      <c t="s">
+        <v>155</v>
+      </c>
+      <c t="s">
+        <v>156</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>157</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>153</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>158</v>
+      </c>
+      <c t="s">
+        <v>159</v>
+      </c>
+      <c t="s">
+        <v>160</v>
+      </c>
+      <c t="s">
+        <v>161</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>157</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>158</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>162</v>
+      </c>
+      <c t="s">
+        <v>163</v>
+      </c>
+      <c t="s">
+        <v>164</v>
+      </c>
+      <c t="s">
+        <v>165</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>157</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>162</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>166</v>
+      </c>
+      <c t="s">
+        <v>167</v>
+      </c>
+      <c t="s">
+        <v>168</v>
+      </c>
+      <c t="s">
+        <v>169</v>
+      </c>
+      <c t="s">
+        <v>141</v>
+      </c>
+      <c t="s">
+        <v>157</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>166</v>
+      </c>
+      <c t="s">
+        <v>105</v>
+      </c>
+      <c t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>170</v>
+      </c>
+      <c t="s">
+        <v>171</v>
+      </c>
+      <c t="s">
+        <v>172</v>
+      </c>
+      <c t="s">
+        <v>173</v>
+      </c>
+      <c t="s">
+        <v>174</v>
+      </c>
+      <c t="s">
+        <v>175</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>51</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>170</v>
+      </c>
+      <c t="s">
+        <v>176</v>
+      </c>
+      <c t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>177</v>
+      </c>
+      <c t="s">
+        <v>178</v>
+      </c>
+      <c t="s">
+        <v>179</v>
+      </c>
+      <c t="s">
+        <v>63</v>
       </c>
       <c t="s">
         <v>88</v>
       </c>
       <c t="s">
-        <v>89</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>90</v>
-      </c>
-      <c t="s">
-        <v>91</v>
-      </c>
-      <c t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>28</v>
-      </c>
-      <c t="s">
-        <v>92</v>
-      </c>
-      <c t="s">
-        <v>93</v>
-      </c>
-      <c t="s">
-        <v>94</v>
+        <v>180</v>
+      </c>
+      <c t="s">
+        <v>181</v>
+      </c>
+      <c t="s">
+        <v>182</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>183</v>
+      </c>
+      <c t="s">
+        <v>67</v>
+      </c>
+      <c t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>184</v>
+      </c>
+      <c t="s">
+        <v>185</v>
+      </c>
+      <c t="s">
+        <v>186</v>
       </c>
       <c t="s">
         <v>63</v>
       </c>
       <c t="s">
-        <v>87</v>
-      </c>
-      <c t="s">
-        <v>95</v>
-      </c>
-      <c t="s">
-        <v>96</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>97</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>98</v>
-      </c>
-      <c t="s">
-        <v>99</v>
-      </c>
-      <c t="s">
-        <v>100</v>
-      </c>
-      <c t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c t="s">
+        <v>187</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>182</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>188</v>
+      </c>
+      <c t="s">
+        <v>189</v>
+      </c>
+      <c t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>25</v>
+      </c>
+      <c t="s">
+        <v>190</v>
+      </c>
+      <c t="s">
+        <v>191</v>
+      </c>
+      <c t="s">
+        <v>192</v>
+      </c>
+      <c t="s">
+        <v>63</v>
+      </c>
+      <c t="s">
+        <v>88</v>
+      </c>
+      <c t="s">
+        <v>193</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>182</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>194</v>
+      </c>
+      <c t="s">
+        <v>195</v>
+      </c>
+      <c t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>196</v>
+      </c>
+      <c t="s">
+        <v>197</v>
+      </c>
+      <c t="s">
+        <v>198</v>
       </c>
       <c t="s">
         <v>102</v>
       </c>
       <c t="s">
-        <v>103</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>98</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>19</v>
+        <v>174</v>
+      </c>
+      <c t="s">
+        <v>199</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>182</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>196</v>
+      </c>
+      <c t="s">
+        <v>200</v>
+      </c>
+      <c t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>201</v>
+      </c>
+      <c t="s">
+        <v>202</v>
+      </c>
+      <c t="s">
+        <v>203</v>
+      </c>
+      <c t="s">
+        <v>204</v>
+      </c>
+      <c t="s">
+        <v>174</v>
+      </c>
+      <c t="s">
+        <v>205</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>182</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>201</v>
+      </c>
+      <c t="s">
+        <v>206</v>
+      </c>
+      <c t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>207</v>
+      </c>
+      <c t="s">
+        <v>208</v>
+      </c>
+      <c t="s">
+        <v>209</v>
+      </c>
+      <c t="s">
+        <v>210</v>
+      </c>
+      <c t="s">
+        <v>174</v>
+      </c>
+      <c t="s">
+        <v>211</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>182</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>207</v>
       </c>
       <c t="s">
         <v>105</v>
       </c>
-      <c t="s">
-        <v>106</v>
-      </c>
-      <c t="s">
-        <v>107</v>
-      </c>
-      <c t="s">
-        <v>101</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>108</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>105</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>18</v>
-      </c>
-      <c t="s">
-        <v>109</v>
-      </c>
-      <c t="s">
-        <v>110</v>
-      </c>
-      <c t="s">
-        <v>111</v>
-      </c>
-      <c t="s">
-        <v>101</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>112</v>
-      </c>
-      <c t="s">
-        <v>113</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>109</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>114</v>
-      </c>
-      <c t="s">
-        <v>115</v>
-      </c>
-      <c t="s">
-        <v>116</v>
-      </c>
-      <c t="s">
-        <v>117</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>118</v>
-      </c>
-      <c t="s">
-        <v>119</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>114</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>120</v>
-      </c>
-      <c t="s">
-        <v>121</v>
-      </c>
-      <c t="s">
-        <v>122</v>
-      </c>
-      <c t="s">
-        <v>101</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>123</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>120</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>124</v>
-      </c>
-      <c t="s">
-        <v>125</v>
-      </c>
-      <c t="s">
-        <v>126</v>
-      </c>
-      <c t="s">
-        <v>101</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>127</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>124</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>128</v>
-      </c>
-      <c t="s">
-        <v>129</v>
-      </c>
-      <c t="s">
-        <v>130</v>
+      <c t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row>
+      <c t="n">
+        <v>27</v>
+      </c>
+      <c t="s">
+        <v>212</v>
+      </c>
+      <c t="s">
+        <v>213</v>
+      </c>
+      <c t="s">
+        <v>214</v>
       </c>
       <c t="s">
         <v>63</v>
       </c>
       <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>131</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>128</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.202</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>132</v>
-      </c>
-      <c t="s">
-        <v>133</v>
-      </c>
-      <c t="s">
-        <v>134</v>
-      </c>
-      <c t="s">
-        <v>101</v>
-      </c>
-      <c t="s">
-        <v>102</v>
-      </c>
-      <c t="s">
-        <v>131</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>132</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>135</v>
-      </c>
-      <c t="s">
-        <v>136</v>
-      </c>
-      <c t="s">
-        <v>137</v>
-      </c>
-      <c t="s">
-        <v>138</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>140</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>135</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>141</v>
-      </c>
-      <c t="s">
-        <v>142</v>
-      </c>
-      <c t="s">
-        <v>143</v>
-      </c>
-      <c t="s">
-        <v>144</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>140</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>141</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>145</v>
-      </c>
-      <c t="s">
-        <v>146</v>
-      </c>
-      <c t="s">
-        <v>147</v>
-      </c>
-      <c t="s">
-        <v>148</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>140</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>145</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>149</v>
-      </c>
-      <c t="s">
-        <v>150</v>
-      </c>
-      <c t="s">
-        <v>151</v>
-      </c>
-      <c t="s">
-        <v>144</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>140</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>149</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>152</v>
-      </c>
-      <c t="s">
-        <v>153</v>
-      </c>
-      <c t="s">
-        <v>154</v>
-      </c>
-      <c t="s">
-        <v>155</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>156</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>152</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>157</v>
-      </c>
-      <c t="s">
-        <v>158</v>
-      </c>
-      <c t="s">
-        <v>159</v>
-      </c>
-      <c t="s">
-        <v>160</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>156</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>157</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>161</v>
-      </c>
-      <c t="s">
-        <v>162</v>
-      </c>
-      <c t="s">
-        <v>163</v>
-      </c>
-      <c t="s">
-        <v>164</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>156</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>161</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.044</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>165</v>
-      </c>
-      <c t="s">
-        <v>166</v>
-      </c>
-      <c t="s">
-        <v>167</v>
-      </c>
-      <c t="s">
-        <v>168</v>
-      </c>
-      <c t="s">
-        <v>139</v>
-      </c>
-      <c t="s">
-        <v>156</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>165</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>169</v>
-      </c>
-      <c t="s">
-        <v>170</v>
-      </c>
-      <c t="s">
-        <v>171</v>
-      </c>
-      <c t="s">
-        <v>172</v>
-      </c>
-      <c t="s">
-        <v>173</v>
-      </c>
-      <c t="s">
-        <v>174</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>169</v>
-      </c>
-      <c t="s">
-        <v>175</v>
-      </c>
-      <c t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>176</v>
-      </c>
-      <c t="s">
-        <v>177</v>
-      </c>
-      <c t="s">
-        <v>178</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>87</v>
-      </c>
-      <c t="s">
-        <v>179</v>
-      </c>
-      <c t="s">
-        <v>180</v>
-      </c>
-      <c t="s">
-        <v>181</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>182</v>
-      </c>
-      <c t="s">
-        <v>67</v>
-      </c>
-      <c t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>26</v>
-      </c>
-      <c t="s">
-        <v>183</v>
-      </c>
-      <c t="s">
-        <v>184</v>
-      </c>
-      <c t="s">
-        <v>185</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>87</v>
-      </c>
-      <c t="s">
-        <v>186</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>181</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>187</v>
-      </c>
-      <c t="s">
-        <v>188</v>
-      </c>
-      <c t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>189</v>
-      </c>
-      <c t="s">
-        <v>190</v>
-      </c>
-      <c t="s">
-        <v>191</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>87</v>
-      </c>
-      <c t="s">
-        <v>192</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>181</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>193</v>
-      </c>
-      <c t="s">
-        <v>194</v>
-      </c>
-      <c t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>195</v>
-      </c>
-      <c t="s">
-        <v>196</v>
-      </c>
-      <c t="s">
-        <v>197</v>
-      </c>
-      <c t="s">
-        <v>101</v>
-      </c>
-      <c t="s">
-        <v>173</v>
-      </c>
-      <c t="s">
-        <v>198</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>181</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>195</v>
-      </c>
-      <c t="s">
-        <v>199</v>
-      </c>
-      <c t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>200</v>
-      </c>
-      <c t="s">
-        <v>201</v>
-      </c>
-      <c t="s">
-        <v>202</v>
-      </c>
-      <c t="s">
-        <v>203</v>
-      </c>
-      <c t="s">
-        <v>173</v>
-      </c>
-      <c t="s">
-        <v>204</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>181</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>200</v>
-      </c>
-      <c t="s">
-        <v>205</v>
-      </c>
-      <c t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>206</v>
-      </c>
-      <c t="s">
-        <v>207</v>
-      </c>
-      <c t="s">
-        <v>208</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>173</v>
-      </c>
-      <c t="s">
-        <v>209</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>181</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>206</v>
-      </c>
-      <c t="s">
-        <v>104</v>
-      </c>
-      <c t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row>
-      <c t="n">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>210</v>
-      </c>
-      <c t="s">
-        <v>211</v>
-      </c>
-      <c t="s">
-        <v>212</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>87</v>
-      </c>
-      <c t="s">
-        <v>213</v>
-      </c>
-      <c/>
-      <c t="s">
-        <v>214</v>
-      </c>
-      <c/>
+        <v>88</v>
+      </c>
       <c t="s">
         <v>215</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>216</v>
+      </c>
+      <c/>
+      <c t="s">
+        <v>217</v>
       </c>
       <c t="s">
         <v>67</v>
@@ -2106,7 +2112,7 @@
   <sheetData>
     <row>
       <c t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
